--- a/1-Assignment-timing/Graphing.xlsx
+++ b/1-Assignment-timing/Graphing.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dtuck\Desktop\School\Algorithms &amp; Data Structures\Programming\Assignment 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dtuck\ITCS-6114\1-Assignment-timing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -73,7 +73,7 @@
     <t>3b.</t>
   </si>
   <si>
-    <t>ArgMax and ArgMin are equivalent in runtime with a faster growth rate than the considerably slower ArgSort</t>
+    <t>ArgMax and ArgMin are equivalent in runtime with a faster execution time than the considerably slower ArgSort</t>
   </si>
 </sst>
 </file>
@@ -1636,11 +1636,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1406040240"/>
-        <c:axId val="1406038064"/>
+        <c:axId val="834088736"/>
+        <c:axId val="834081664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1406040240"/>
+        <c:axId val="834088736"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1747,12 +1747,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1406038064"/>
+        <c:crossAx val="834081664"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1406038064"/>
+        <c:axId val="834081664"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1861,7 +1861,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1406040240"/>
+        <c:crossAx val="834088736"/>
         <c:crossesAt val="100"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -30135,8 +30135,8 @@
   </sheetPr>
   <dimension ref="A2:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
